--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8145BF98-5F06-4946-8567-6F672012860E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAACC426-5092-45AD-96D3-91BE15C9C30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>Typescript</t>
   </si>
@@ -338,13 +338,91 @@
   </si>
   <si>
     <t>The Course Project Setup</t>
+  </si>
+  <si>
+    <t>Module Introduction</t>
+  </si>
+  <si>
+    <t>Using Types</t>
+  </si>
+  <si>
+    <t>Typescript Types and Javascript Types</t>
+  </si>
+  <si>
+    <t>Important Typecasting</t>
+  </si>
+  <si>
+    <t>Working with Numbers String and Boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type Assignment and Type Interface </t>
+  </si>
+  <si>
+    <t>Quiz 1: Understanding Types</t>
+  </si>
+  <si>
+    <t>Object Types</t>
+  </si>
+  <si>
+    <t>Nested Object and Types</t>
+  </si>
+  <si>
+    <t>Array Types</t>
+  </si>
+  <si>
+    <t>Working with Tuples</t>
+  </si>
+  <si>
+    <t>Working with Enums</t>
+  </si>
+  <si>
+    <t>The 'any' type</t>
+  </si>
+  <si>
+    <t>Union Types</t>
+  </si>
+  <si>
+    <t>Literal Types</t>
+  </si>
+  <si>
+    <t>Type Aliases/Custom Types</t>
+  </si>
+  <si>
+    <t>Type Aliases &amp; Object Types</t>
+  </si>
+  <si>
+    <t>Quiz 2: Core Types and Concepts</t>
+  </si>
+  <si>
+    <t>Function Return Types and Void</t>
+  </si>
+  <si>
+    <t>Functions as Types</t>
+  </si>
+  <si>
+    <t>Function Types and Callback</t>
+  </si>
+  <si>
+    <t>Quiz 3: Functions &amp; types</t>
+  </si>
+  <si>
+    <t>The 'unknown' type</t>
+  </si>
+  <si>
+    <t>the 'never' type</t>
+  </si>
+  <si>
+    <t>Wrap Up</t>
+  </si>
+  <si>
+    <t>Usefull Resources and links</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +483,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +511,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -449,12 +541,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -463,13 +592,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -754,165 +892,317 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="39.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="B12" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" location="overview" xr:uid="{A7EFE1D9-B2C6-43E7-B7A5-60F6B186FD75}"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAACC426-5092-45AD-96D3-91BE15C9C30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB763CAF-B9AF-4B66-8D9F-82C733E1F881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Udemy" sheetId="1" r:id="rId1"/>
@@ -599,13 +599,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -895,8 +895,8 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:B37"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,157 +975,157 @@
       <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>129</v>
       </c>
     </row>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB763CAF-B9AF-4B66-8D9F-82C733E1F881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981BCF21-D1D4-4B6A-9488-530F03B52434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
   <si>
     <t>Typescript</t>
   </si>
@@ -416,6 +416,72 @@
   </si>
   <si>
     <t>Usefull Resources and links</t>
+  </si>
+  <si>
+    <t>Using Watch Mode</t>
+  </si>
+  <si>
+    <t>Compiling the entire project / Multiple Files</t>
+  </si>
+  <si>
+    <t>Including and Excluding Files</t>
+  </si>
+  <si>
+    <t>Setting a Compilation Target</t>
+  </si>
+  <si>
+    <t>Understanding Typescript Core Library</t>
+  </si>
+  <si>
+    <t>More Configuration and Compilation Options</t>
+  </si>
+  <si>
+    <t>Working with Source Maps</t>
+  </si>
+  <si>
+    <t>rootDir and outDir</t>
+  </si>
+  <si>
+    <t>Stop Emitting Files on Compilation Errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strict Compilation </t>
+  </si>
+  <si>
+    <t>Code Quality Options</t>
+  </si>
+  <si>
+    <t>Debugging with Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Useful Resurces and Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrap up </t>
+  </si>
+  <si>
+    <t>"let" and "const"</t>
+  </si>
+  <si>
+    <t>Arrow Functions</t>
+  </si>
+  <si>
+    <t>Default Funnction Parameters</t>
+  </si>
+  <si>
+    <t>The Spread Operator (…)</t>
+  </si>
+  <si>
+    <t>Rest Parameters</t>
+  </si>
+  <si>
+    <t>Array ans Object Destructuring</t>
+  </si>
+  <si>
+    <t>How Codes get Compiled and Wrap Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usefull Resources and Links </t>
   </si>
 </sst>
 </file>
@@ -583,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -606,6 +672,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -892,11 +967,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,79 +1205,219 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="B39" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B55" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A37"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A55:A63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" location="overview" xr:uid="{A7EFE1D9-B2C6-43E7-B7A5-60F6B186FD75}"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981BCF21-D1D4-4B6A-9488-530F03B52434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C150AD-AC46-4C59-9D99-F4AE5BC28ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Udemy" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="188">
   <si>
     <t>Typescript</t>
   </si>
@@ -482,6 +482,114 @@
   </si>
   <si>
     <t xml:space="preserve">Usefull Resources and Links </t>
+  </si>
+  <si>
+    <t>What are Classes</t>
+  </si>
+  <si>
+    <t>Creating a First Class</t>
+  </si>
+  <si>
+    <t>Compiling to Javascript</t>
+  </si>
+  <si>
+    <t>Constructor Functions and this keyword</t>
+  </si>
+  <si>
+    <t>private and public access modifier</t>
+  </si>
+  <si>
+    <t>Shorthand Initialization</t>
+  </si>
+  <si>
+    <t>readonly properties</t>
+  </si>
+  <si>
+    <t>Quiz 4 - Class Basics</t>
+  </si>
+  <si>
+    <t>Inheritence</t>
+  </si>
+  <si>
+    <t>Overriding Properties and protected modifiers</t>
+  </si>
+  <si>
+    <t>Getters and Setters</t>
+  </si>
+  <si>
+    <t>Static Methods and Properties</t>
+  </si>
+  <si>
+    <t>Abstract classes</t>
+  </si>
+  <si>
+    <t>Singlton And Private Constructors</t>
+  </si>
+  <si>
+    <t>Classes a summary</t>
+  </si>
+  <si>
+    <t>Quiz 5 - Classes</t>
+  </si>
+  <si>
+    <t>A First Interface</t>
+  </si>
+  <si>
+    <t>Using Interfaces with Classes</t>
+  </si>
+  <si>
+    <t>Why Interfaces</t>
+  </si>
+  <si>
+    <t>Readonly Interface Properties</t>
+  </si>
+  <si>
+    <t>Extending Interface</t>
+  </si>
+  <si>
+    <t>Interface as Function Types</t>
+  </si>
+  <si>
+    <t>Optional Paraeters and Properties</t>
+  </si>
+  <si>
+    <t>Compiling Interfaces to JS</t>
+  </si>
+  <si>
+    <t>Quiz - Interfaces</t>
+  </si>
+  <si>
+    <t>Wrapup</t>
+  </si>
+  <si>
+    <t>Intersection Types</t>
+  </si>
+  <si>
+    <t>More on Type Guards</t>
+  </si>
+  <si>
+    <t>Discriminated Unions</t>
+  </si>
+  <si>
+    <t>Type Casting</t>
+  </si>
+  <si>
+    <t>Index Properties</t>
+  </si>
+  <si>
+    <t>Function Overloads</t>
+  </si>
+  <si>
+    <t>Optional Chaining</t>
+  </si>
+  <si>
+    <t>Nullish Coalescing</t>
+  </si>
+  <si>
+    <t>Quiz Advanced Types</t>
+  </si>
+  <si>
+    <t>Useful Resources and Links</t>
   </si>
 </sst>
 </file>
@@ -649,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -674,13 +782,22 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -967,11 +1084,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:B63"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,124 +1417,354 @@
       <c r="A55" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="B65" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="17"/>
+      <c r="B68" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="17"/>
+      <c r="B71" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="17"/>
+      <c r="B81" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="B93" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+      <c r="B96" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+      <c r="B97" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="B98" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+      <c r="B99" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+      <c r="B100" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+      <c r="B101" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="20"/>
+      <c r="B102" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
+      <c r="B103" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A93:A104"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A37"/>
     <mergeCell ref="A39:A53"/>
     <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A65:A91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" location="overview" xr:uid="{A7EFE1D9-B2C6-43E7-B7A5-60F6B186FD75}"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C150AD-AC46-4C59-9D99-F4AE5BC28ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996AA61F-0AAF-4EBF-A210-96E8CA124A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="198">
   <si>
     <t>Typescript</t>
   </si>
@@ -590,6 +590,36 @@
   </si>
   <si>
     <t>Useful Resources and Links</t>
+  </si>
+  <si>
+    <t>Built-In Generics and what are Generics?</t>
+  </si>
+  <si>
+    <t>Creating a Generic Function</t>
+  </si>
+  <si>
+    <t>Working with Constraints</t>
+  </si>
+  <si>
+    <t>Another Generic Function</t>
+  </si>
+  <si>
+    <t>The "keyOf" constraints</t>
+  </si>
+  <si>
+    <t>Generic Class</t>
+  </si>
+  <si>
+    <t>A First Summary</t>
+  </si>
+  <si>
+    <t>Generic Utility Types</t>
+  </si>
+  <si>
+    <t>Generic Types and Union Types</t>
+  </si>
+  <si>
+    <t>Quiz and Generics</t>
   </si>
 </sst>
 </file>
@@ -770,6 +800,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -789,15 +828,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1084,11 +1114,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:A104"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1137,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1115,56 +1145,56 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1172,157 +1202,157 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -1330,91 +1360,91 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -1422,55 +1452,55 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -1478,157 +1508,157 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="10" t="s">
         <v>177</v>
       </c>
@@ -1637,128 +1667,198 @@
       <c r="A93" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="B106" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="13"/>
+      <c r="B107" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+      <c r="B108" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A106:A117"/>
     <mergeCell ref="A93:A104"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A37"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996AA61F-0AAF-4EBF-A210-96E8CA124A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C9493-879F-4DF3-8996-B593C0A818CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="211">
   <si>
     <t>Typescript</t>
   </si>
@@ -620,6 +620,45 @@
   </si>
   <si>
     <t>Quiz and Generics</t>
+  </si>
+  <si>
+    <t>A First Class Decorators</t>
+  </si>
+  <si>
+    <t>Working With Decorator Factories</t>
+  </si>
+  <si>
+    <t>Building More Useful Decorators</t>
+  </si>
+  <si>
+    <t>Adding Multiple Decorators</t>
+  </si>
+  <si>
+    <t>Diving into Property Decorator</t>
+  </si>
+  <si>
+    <t>Accessor &amp; Parameter Decorators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When do Decorators Execute </t>
+  </si>
+  <si>
+    <t>Returnign and Changing a Class in a Class Decorator</t>
+  </si>
+  <si>
+    <t>Other Decorator Return Types</t>
+  </si>
+  <si>
+    <t>Example: Creating an Autobind Decorator</t>
+  </si>
+  <si>
+    <t>Validation with Decorators with First Steps</t>
+  </si>
+  <si>
+    <t>Validation with Decorators Finished</t>
+  </si>
+  <si>
+    <t>Fixing a Validator Bug</t>
   </si>
 </sst>
 </file>
@@ -809,6 +848,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -819,15 +867,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1114,11 +1153,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106:A117"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1176,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1145,56 +1184,56 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1202,157 +1241,157 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -1360,91 +1399,91 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -1452,55 +1491,55 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -1508,163 +1547,163 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -1672,192 +1711,286 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="11" t="s">
+      <c r="A107" s="16"/>
+      <c r="B107" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="11" t="s">
+      <c r="A108" s="16"/>
+      <c r="B108" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="11" t="s">
+      <c r="A109" s="16"/>
+      <c r="B109" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="11" t="s">
+      <c r="A110" s="16"/>
+      <c r="B110" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="11" t="s">
+      <c r="A111" s="16"/>
+      <c r="B111" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="11" t="s">
+      <c r="A112" s="16"/>
+      <c r="B112" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-      <c r="B113" s="11" t="s">
+      <c r="A113" s="16"/>
+      <c r="B113" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="16"/>
+      <c r="B114" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="11" t="s">
+      <c r="A115" s="16"/>
+      <c r="B115" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="11" t="s">
+      <c r="A116" s="16"/>
+      <c r="B116" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="11" t="s">
+      <c r="A117" s="17"/>
+      <c r="B117" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="B119" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="13"/>
+      <c r="B120" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+      <c r="B121" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+      <c r="B125" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+      <c r="B126" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+      <c r="B127" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+      <c r="B128" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+      <c r="B129" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="B132" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+      <c r="B133" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A119:A134"/>
     <mergeCell ref="A106:A117"/>
     <mergeCell ref="A93:A104"/>
     <mergeCell ref="A2:A10"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C9493-879F-4DF3-8996-B593C0A818CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE74D816-044C-4AFD-AD33-86FA90B21615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -839,15 +839,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1156,7 +1147,7 @@
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A119" sqref="A119:B134"/>
     </sheetView>
   </sheetViews>
@@ -1176,7 +1167,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1184,56 +1175,56 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1241,157 +1232,157 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -1399,91 +1390,91 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -1491,55 +1482,55 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -1547,163 +1538,163 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -1711,73 +1702,73 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="10" t="s">
@@ -1785,67 +1776,67 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
+      <c r="A117" s="14"/>
       <c r="B117" s="10" t="s">
         <v>187</v>
       </c>
@@ -1854,97 +1845,97 @@
       <c r="A119" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>187</v>
       </c>
     </row>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE74D816-044C-4AFD-AD33-86FA90B21615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228664BE-1CEA-4F5F-AA9C-A47F05F08536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="236">
   <si>
     <t>Typescript</t>
   </si>
@@ -659,6 +659,81 @@
   </si>
   <si>
     <t>Fixing a Validator Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM Element selection OOP rendering </t>
+  </si>
+  <si>
+    <t>Interacting with DOM element</t>
+  </si>
+  <si>
+    <t>Creating and Using an Autobind Decorator</t>
+  </si>
+  <si>
+    <t>Fetching User Input</t>
+  </si>
+  <si>
+    <t>Creatign a Re-usable Functionality</t>
+  </si>
+  <si>
+    <t>Rendering Project Lists</t>
+  </si>
+  <si>
+    <t>Managing Application State with Singletons</t>
+  </si>
+  <si>
+    <t>More Classes and Custom Types</t>
+  </si>
+  <si>
+    <t>Filtering Project With Enums</t>
+  </si>
+  <si>
+    <t>Adding Inheritence and Generics</t>
+  </si>
+  <si>
+    <t>Rendering Project Items With a Class</t>
+  </si>
+  <si>
+    <t>Using a Getter</t>
+  </si>
+  <si>
+    <t>Utilizing Interfaces to Implement Drag and Drop</t>
+  </si>
+  <si>
+    <t>Drag Events and Reflecting the Current State in the UI</t>
+  </si>
+  <si>
+    <t>Addign a Droppable Area</t>
+  </si>
+  <si>
+    <t>Finishing Drag and Drop</t>
+  </si>
+  <si>
+    <t>Writing Module Code - Your Options</t>
+  </si>
+  <si>
+    <t>Working with Namespaces</t>
+  </si>
+  <si>
+    <t>Organizing Files and Folders</t>
+  </si>
+  <si>
+    <t>A Problem with Namespace imports</t>
+  </si>
+  <si>
+    <t>Important: Use Chrome or Firefox</t>
+  </si>
+  <si>
+    <t>Using ES Modules</t>
+  </si>
+  <si>
+    <t>Understanding various Imports and Exports Syntaxes</t>
+  </si>
+  <si>
+    <t>How Does Code In Modules Execute?</t>
+  </si>
+  <si>
+    <t>Useful Resources &amp; Links</t>
   </si>
 </sst>
 </file>
@@ -729,7 +804,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -756,7 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -839,25 +913,35 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1144,11 +1228,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119:B134"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157:A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1251,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1175,812 +1259,994 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="10" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="10" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="10" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="10" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="10" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="10" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="10" t="s">
+      <c r="A81" s="14"/>
+      <c r="B81" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="14"/>
+      <c r="B82" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="14"/>
+      <c r="B84" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="10" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="14"/>
+      <c r="B88" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="14"/>
+      <c r="B89" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="14"/>
+      <c r="B90" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="15"/>
+      <c r="B91" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="14"/>
+      <c r="B94" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="10" t="s">
+      <c r="A95" s="14"/>
+      <c r="B95" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="10" t="s">
+      <c r="A96" s="14"/>
+      <c r="B96" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="14"/>
+      <c r="B97" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="10" t="s">
+      <c r="A98" s="14"/>
+      <c r="B98" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
-      <c r="B99" s="10" t="s">
+      <c r="A99" s="14"/>
+      <c r="B99" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="14"/>
+      <c r="B100" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="14"/>
+      <c r="B101" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="10" t="s">
+      <c r="A102" s="14"/>
+      <c r="B102" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="10" t="s">
+      <c r="A103" s="14"/>
+      <c r="B103" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="10" t="s">
+      <c r="A107" s="14"/>
+      <c r="B107" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="14"/>
+      <c r="B108" s="12" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="10" t="s">
+      <c r="A109" s="14"/>
+      <c r="B109" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="14"/>
+      <c r="B110" s="12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="10" t="s">
+      <c r="A111" s="14"/>
+      <c r="B111" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="14"/>
+      <c r="B112" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-      <c r="B113" s="10" t="s">
+      <c r="A113" s="14"/>
+      <c r="B113" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="10" t="s">
+      <c r="A114" s="14"/>
+      <c r="B114" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="10" t="s">
+      <c r="A115" s="14"/>
+      <c r="B115" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="10" t="s">
+      <c r="A116" s="14"/>
+      <c r="B116" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="10" t="s">
+      <c r="A120" s="14"/>
+      <c r="B120" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="10" t="s">
+      <c r="A121" s="14"/>
+      <c r="B121" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="10" t="s">
+      <c r="A122" s="14"/>
+      <c r="B122" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="10" t="s">
+      <c r="A123" s="14"/>
+      <c r="B123" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="10" t="s">
+      <c r="A124" s="14"/>
+      <c r="B124" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
-      <c r="B125" s="10" t="s">
+      <c r="A125" s="14"/>
+      <c r="B125" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="10" t="s">
+      <c r="A126" s="14"/>
+      <c r="B126" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="B127" s="10" t="s">
+      <c r="A127" s="14"/>
+      <c r="B127" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="10" t="s">
+      <c r="A128" s="14"/>
+      <c r="B128" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="10" t="s">
+      <c r="A129" s="14"/>
+      <c r="B129" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="10" t="s">
+      <c r="A130" s="14"/>
+      <c r="B130" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
-      <c r="B131" s="10" t="s">
+      <c r="A131" s="14"/>
+      <c r="B131" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
-      <c r="B132" s="10" t="s">
+      <c r="A132" s="14"/>
+      <c r="B132" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="B133" s="10" t="s">
+      <c r="A133" s="14"/>
+      <c r="B133" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="10" t="s">
+      <c r="A134" s="15"/>
+      <c r="B134" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="B136" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="18"/>
+      <c r="B137" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
+      <c r="B138" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
+      <c r="B139" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="B140" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="18"/>
+      <c r="B142" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="18"/>
+      <c r="B143" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="18"/>
+      <c r="B144" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="B145" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="B146" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
+      <c r="B152" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
+      <c r="B153" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="18"/>
+      <c r="B154" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="19"/>
+      <c r="B155" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+      <c r="B157" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="21"/>
+      <c r="B158" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="21"/>
+      <c r="B159" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="21"/>
+      <c r="B160" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="21"/>
+      <c r="B161" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="21"/>
+      <c r="B162" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="21"/>
+      <c r="B163" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="21"/>
+      <c r="B164" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="21"/>
+      <c r="B165" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="21"/>
+      <c r="B166" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="22"/>
+      <c r="B167" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A157:A167"/>
+    <mergeCell ref="A136:A155"/>
     <mergeCell ref="A119:A134"/>
     <mergeCell ref="A106:A117"/>
     <mergeCell ref="A93:A104"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\KAIZEN\Typescript\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228664BE-1CEA-4F5F-AA9C-A47F05F08536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Udemy" sheetId="1" r:id="rId1"/>
     <sheet name="Typescript" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="243">
   <si>
     <t>Typescript</t>
   </si>
@@ -734,13 +728,34 @@
   </si>
   <si>
     <t>Useful Resources &amp; Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Webpack and Why do we need it </t>
+  </si>
+  <si>
+    <t>Installing Webpack and Important dependencies</t>
+  </si>
+  <si>
+    <t>Adding Entry and Output Configuration</t>
+  </si>
+  <si>
+    <t>Adding Typescript Support With the ts-loader package</t>
+  </si>
+  <si>
+    <t>Finishing the setup and adding webpack-dev-server</t>
+  </si>
+  <si>
+    <t>Adding a Production Workflow</t>
+  </si>
+  <si>
+    <t>Usefull Resources and Links</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,6 +929,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -925,15 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1005,7 +1020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1040,7 +1055,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1217,32 +1232,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B174"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157:A167"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A169:A177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="39.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1250,1014 +1265,1066 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:2" s="6" customFormat="1">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:2" s="6" customFormat="1">
+      <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:2" s="6" customFormat="1">
+      <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:2" s="6" customFormat="1">
+      <c r="A5" s="19"/>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:2" s="6" customFormat="1">
+      <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:2" s="6" customFormat="1">
+      <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:2" s="6" customFormat="1">
+      <c r="A8" s="19"/>
       <c r="B8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:2" s="6" customFormat="1">
+      <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:2" s="6" customFormat="1">
+      <c r="A10" s="19"/>
       <c r="B10" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="11" spans="1:2" s="6" customFormat="1"/>
+    <row r="12" spans="1:2" s="6" customFormat="1">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:2" s="6" customFormat="1">
+      <c r="A13" s="17"/>
       <c r="B13" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:2" s="6" customFormat="1">
+      <c r="A14" s="17"/>
       <c r="B14" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:2" s="6" customFormat="1">
+      <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:2" s="6" customFormat="1">
+      <c r="A16" s="17"/>
       <c r="B16" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:2" s="6" customFormat="1">
+      <c r="A17" s="17"/>
       <c r="B17" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:2" s="6" customFormat="1">
+      <c r="A18" s="17"/>
       <c r="B18" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:2" s="6" customFormat="1">
+      <c r="A19" s="17"/>
       <c r="B19" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:2" s="6" customFormat="1">
+      <c r="A20" s="17"/>
       <c r="B20" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:2" s="6" customFormat="1">
+      <c r="A21" s="17"/>
       <c r="B21" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:2">
+      <c r="A22" s="17"/>
       <c r="B22" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:2">
+      <c r="A23" s="17"/>
       <c r="B23" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:2">
+      <c r="A24" s="17"/>
       <c r="B24" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:2">
+      <c r="A25" s="17"/>
       <c r="B25" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:2">
+      <c r="A26" s="17"/>
       <c r="B26" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17"/>
       <c r="B27" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17"/>
       <c r="B28" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17"/>
       <c r="B29" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17"/>
       <c r="B30" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17"/>
       <c r="B31" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17"/>
       <c r="B32" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17"/>
       <c r="B33" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17"/>
       <c r="B34" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17"/>
       <c r="B35" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17"/>
       <c r="B36" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+    <row r="37" spans="1:2">
+      <c r="A37" s="18"/>
       <c r="B37" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+    <row r="40" spans="1:2">
+      <c r="A40" s="17"/>
       <c r="B40" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17"/>
       <c r="B41" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:2">
+      <c r="A42" s="17"/>
       <c r="B42" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17"/>
       <c r="B43" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+    <row r="44" spans="1:2">
+      <c r="A44" s="17"/>
       <c r="B44" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+    <row r="45" spans="1:2">
+      <c r="A45" s="17"/>
       <c r="B45" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:2">
+      <c r="A46" s="17"/>
       <c r="B46" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:2">
+      <c r="A47" s="17"/>
       <c r="B47" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+    <row r="48" spans="1:2">
+      <c r="A48" s="17"/>
       <c r="B48" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17"/>
       <c r="B49" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+    <row r="50" spans="1:2">
+      <c r="A50" s="17"/>
       <c r="B50" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+    <row r="51" spans="1:2">
+      <c r="A51" s="17"/>
       <c r="B51" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+    <row r="52" spans="1:2">
+      <c r="A52" s="17"/>
       <c r="B52" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17"/>
       <c r="B53" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:2">
+      <c r="A56" s="17"/>
       <c r="B56" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+    <row r="57" spans="1:2">
+      <c r="A57" s="17"/>
       <c r="B57" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:2">
+      <c r="A58" s="17"/>
       <c r="B58" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:2">
+      <c r="A59" s="17"/>
       <c r="B59" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:2">
+      <c r="A60" s="17"/>
       <c r="B60" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+    <row r="61" spans="1:2">
+      <c r="A61" s="17"/>
       <c r="B61" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+    <row r="62" spans="1:2">
+      <c r="A62" s="17"/>
       <c r="B62" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+    <row r="63" spans="1:2">
+      <c r="A63" s="17"/>
       <c r="B63" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+    <row r="66" spans="1:2">
+      <c r="A66" s="17"/>
       <c r="B66" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+    <row r="67" spans="1:2">
+      <c r="A67" s="17"/>
       <c r="B67" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+    <row r="68" spans="1:2">
+      <c r="A68" s="17"/>
       <c r="B68" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+    <row r="69" spans="1:2">
+      <c r="A69" s="17"/>
       <c r="B69" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
+    <row r="70" spans="1:2">
+      <c r="A70" s="17"/>
       <c r="B70" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+    <row r="71" spans="1:2">
+      <c r="A71" s="17"/>
       <c r="B71" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
+    <row r="72" spans="1:2">
+      <c r="A72" s="17"/>
       <c r="B72" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+    <row r="73" spans="1:2">
+      <c r="A73" s="17"/>
       <c r="B73" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+    <row r="74" spans="1:2">
+      <c r="A74" s="17"/>
       <c r="B74" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+    <row r="75" spans="1:2">
+      <c r="A75" s="17"/>
       <c r="B75" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+    <row r="76" spans="1:2">
+      <c r="A76" s="17"/>
       <c r="B76" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+    <row r="77" spans="1:2">
+      <c r="A77" s="17"/>
       <c r="B77" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+    <row r="78" spans="1:2">
+      <c r="A78" s="17"/>
       <c r="B78" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+    <row r="79" spans="1:2">
+      <c r="A79" s="17"/>
       <c r="B79" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+    <row r="80" spans="1:2">
+      <c r="A80" s="17"/>
       <c r="B80" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:2">
+      <c r="A81" s="17"/>
       <c r="B81" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+    <row r="82" spans="1:2">
+      <c r="A82" s="17"/>
       <c r="B82" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+    <row r="83" spans="1:2">
+      <c r="A83" s="17"/>
       <c r="B83" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+    <row r="84" spans="1:2">
+      <c r="A84" s="17"/>
       <c r="B84" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+    <row r="85" spans="1:2">
+      <c r="A85" s="17"/>
       <c r="B85" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+    <row r="86" spans="1:2">
+      <c r="A86" s="17"/>
       <c r="B86" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+    <row r="87" spans="1:2">
+      <c r="A87" s="17"/>
       <c r="B87" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+    <row r="88" spans="1:2">
+      <c r="A88" s="17"/>
       <c r="B88" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+    <row r="89" spans="1:2">
+      <c r="A89" s="17"/>
       <c r="B89" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+    <row r="90" spans="1:2">
+      <c r="A90" s="17"/>
       <c r="B90" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
+    <row r="91" spans="1:2">
+      <c r="A91" s="18"/>
       <c r="B91" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+    <row r="94" spans="1:2">
+      <c r="A94" s="17"/>
       <c r="B94" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+    <row r="95" spans="1:2">
+      <c r="A95" s="17"/>
       <c r="B95" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+    <row r="96" spans="1:2">
+      <c r="A96" s="17"/>
       <c r="B96" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+    <row r="97" spans="1:2">
+      <c r="A97" s="17"/>
       <c r="B97" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+    <row r="98" spans="1:2">
+      <c r="A98" s="17"/>
       <c r="B98" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+    <row r="99" spans="1:2">
+      <c r="A99" s="17"/>
       <c r="B99" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+    <row r="100" spans="1:2">
+      <c r="A100" s="17"/>
       <c r="B100" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
+    <row r="101" spans="1:2">
+      <c r="A101" s="17"/>
       <c r="B101" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+    <row r="102" spans="1:2">
+      <c r="A102" s="17"/>
       <c r="B102" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+    <row r="103" spans="1:2">
+      <c r="A103" s="17"/>
       <c r="B103" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+    <row r="104" spans="1:2">
+      <c r="A104" s="17"/>
       <c r="B104" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
+    <row r="107" spans="1:2">
+      <c r="A107" s="17"/>
       <c r="B107" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
+    <row r="108" spans="1:2">
+      <c r="A108" s="17"/>
       <c r="B108" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
+    <row r="109" spans="1:2">
+      <c r="A109" s="17"/>
       <c r="B109" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
+    <row r="110" spans="1:2">
+      <c r="A110" s="17"/>
       <c r="B110" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
+    <row r="111" spans="1:2">
+      <c r="A111" s="17"/>
       <c r="B111" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
+    <row r="112" spans="1:2">
+      <c r="A112" s="17"/>
       <c r="B112" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+    <row r="113" spans="1:2">
+      <c r="A113" s="17"/>
       <c r="B113" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
+    <row r="114" spans="1:2">
+      <c r="A114" s="17"/>
       <c r="B114" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+    <row r="115" spans="1:2">
+      <c r="A115" s="17"/>
       <c r="B115" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+    <row r="116" spans="1:2">
+      <c r="A116" s="17"/>
       <c r="B116" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
+    <row r="117" spans="1:2">
+      <c r="A117" s="17"/>
       <c r="B117" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+    <row r="120" spans="1:2">
+      <c r="A120" s="17"/>
       <c r="B120" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+    <row r="121" spans="1:2">
+      <c r="A121" s="17"/>
       <c r="B121" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+    <row r="122" spans="1:2">
+      <c r="A122" s="17"/>
       <c r="B122" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
+    <row r="123" spans="1:2">
+      <c r="A123" s="17"/>
       <c r="B123" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+    <row r="124" spans="1:2">
+      <c r="A124" s="17"/>
       <c r="B124" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+    <row r="125" spans="1:2">
+      <c r="A125" s="17"/>
       <c r="B125" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
+    <row r="126" spans="1:2">
+      <c r="A126" s="17"/>
       <c r="B126" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+    <row r="127" spans="1:2">
+      <c r="A127" s="17"/>
       <c r="B127" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
+    <row r="128" spans="1:2">
+      <c r="A128" s="17"/>
       <c r="B128" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+    <row r="129" spans="1:2">
+      <c r="A129" s="17"/>
       <c r="B129" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+    <row r="130" spans="1:2">
+      <c r="A130" s="17"/>
       <c r="B130" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+    <row r="131" spans="1:2">
+      <c r="A131" s="17"/>
       <c r="B131" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+    <row r="132" spans="1:2">
+      <c r="A132" s="17"/>
       <c r="B132" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+    <row r="133" spans="1:2">
+      <c r="A133" s="17"/>
       <c r="B133" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
+    <row r="134" spans="1:2">
+      <c r="A134" s="18"/>
       <c r="B134" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B136" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
+    <row r="137" spans="1:2">
+      <c r="A137" s="14"/>
       <c r="B137" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="18"/>
+    <row r="138" spans="1:2">
+      <c r="A138" s="14"/>
       <c r="B138" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="18"/>
+    <row r="139" spans="1:2">
+      <c r="A139" s="14"/>
       <c r="B139" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
+    <row r="140" spans="1:2">
+      <c r="A140" s="14"/>
       <c r="B140" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
+    <row r="141" spans="1:2">
+      <c r="A141" s="14"/>
       <c r="B141" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="18"/>
+    <row r="142" spans="1:2">
+      <c r="A142" s="14"/>
       <c r="B142" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="18"/>
+    <row r="143" spans="1:2">
+      <c r="A143" s="14"/>
       <c r="B143" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
+    <row r="144" spans="1:2">
+      <c r="A144" s="14"/>
       <c r="B144" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="18"/>
+    <row r="145" spans="1:2">
+      <c r="A145" s="14"/>
       <c r="B145" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="18"/>
+    <row r="146" spans="1:2">
+      <c r="A146" s="14"/>
       <c r="B146" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
+    <row r="147" spans="1:2">
+      <c r="A147" s="14"/>
       <c r="B147" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
+    <row r="148" spans="1:2">
+      <c r="A148" s="14"/>
       <c r="B148" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
+    <row r="149" spans="1:2">
+      <c r="A149" s="14"/>
       <c r="B149" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
+    <row r="150" spans="1:2">
+      <c r="A150" s="14"/>
       <c r="B150" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
+    <row r="151" spans="1:2">
+      <c r="A151" s="14"/>
       <c r="B151" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
+    <row r="152" spans="1:2">
+      <c r="A152" s="14"/>
       <c r="B152" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
+    <row r="153" spans="1:2">
+      <c r="A153" s="14"/>
       <c r="B153" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="18"/>
+    <row r="154" spans="1:2">
+      <c r="A154" s="14"/>
       <c r="B154" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="19"/>
+    <row r="155" spans="1:2">
+      <c r="A155" s="15"/>
       <c r="B155" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="20" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="21"/>
-      <c r="B158" s="11" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" s="14"/>
+      <c r="B158" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="21"/>
-      <c r="B159" s="11" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="14"/>
+      <c r="B159" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="21"/>
-      <c r="B160" s="11" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="14"/>
+      <c r="B160" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="21"/>
-      <c r="B161" s="11" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="14"/>
+      <c r="B161" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="21"/>
-      <c r="B162" s="11" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="14"/>
+      <c r="B162" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="21"/>
-      <c r="B163" s="11" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="14"/>
+      <c r="B163" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="21"/>
-      <c r="B164" s="11" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="14"/>
+      <c r="B164" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="21"/>
-      <c r="B165" s="11" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="14"/>
+      <c r="B165" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="21"/>
-      <c r="B166" s="11" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="14"/>
+      <c r="B166" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="22"/>
-      <c r="B167" s="11" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="15"/>
+      <c r="B167" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="B169" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="21"/>
+      <c r="B170" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="21"/>
+      <c r="B171" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="21"/>
+      <c r="B172" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="21"/>
+      <c r="B173" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="21"/>
+      <c r="B174" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="21"/>
+      <c r="B175" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="21"/>
+      <c r="B176" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="22"/>
+      <c r="B177" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+    <row r="180" spans="1:2">
+      <c r="A180" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A169:A177"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A37"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A65:A91"/>
     <mergeCell ref="A157:A167"/>
     <mergeCell ref="A136:A155"/>
     <mergeCell ref="A119:A134"/>
     <mergeCell ref="A106:A117"/>
     <mergeCell ref="A93:A104"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A37"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="A65:A91"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="overview" xr:uid="{A7EFE1D9-B2C6-43E7-B7A5-60F6B186FD75}"/>
+    <hyperlink ref="B1" r:id="rId1" location="overview"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -2265,24 +2332,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B812D0A9-102E-4F12-9656-33453346CC3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="39.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2360,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2310,7 +2377,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2327,7 +2394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -2344,7 +2411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2361,7 +2428,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -2378,7 +2445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -2395,7 +2462,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2409,7 +2476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2420,7 +2487,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -2431,7 +2498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -2439,7 +2506,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -2447,7 +2514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -2455,7 +2522,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2463,7 +2530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2471,7 +2538,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -2479,7 +2546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2487,7 +2554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2495,7 +2562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2503,7 +2570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2511,7 +2578,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2519,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2527,7 +2594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2535,7 +2602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2543,7 +2610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2551,69 +2618,69 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{FB7C80C8-B207-4724-82BD-A781A0024C4C}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="247">
   <si>
     <t>Typescript</t>
   </si>
@@ -64,9 +64,6 @@
     <t>3rd Party Libraries and TS</t>
   </si>
   <si>
-    <t>Practice - Select and Share a place</t>
-  </si>
-  <si>
     <t>ReactJS and TS</t>
   </si>
   <si>
@@ -749,6 +746,21 @@
   </si>
   <si>
     <t>Usefull Resources and Links</t>
+  </si>
+  <si>
+    <t>Using Declare as aLAst Resort</t>
+  </si>
+  <si>
+    <t>No Types Needed Class Transformer</t>
+  </si>
+  <si>
+    <t>Typescript embressing : class-validator</t>
+  </si>
+  <si>
+    <t>Using Javascript (!) Libraries with Typescript</t>
+  </si>
+  <si>
+    <t>Time to Practice! Lets build a "Select &amp; Share a Place" App (Inc. Google Map)</t>
   </si>
 </sst>
 </file>
@@ -929,14 +941,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -947,16 +962,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1232,7 +1244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1243,16 +1255,16 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A169" sqref="A169:A177"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="104.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.109375" style="11"/>
   </cols>
@@ -1266,1051 +1278,1091 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="10" t="s">
+    <row r="4" spans="1:2" s="6" customFormat="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="10" t="s">
+    <row r="5" spans="1:2" s="6" customFormat="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="10" t="s">
+    <row r="6" spans="1:2" s="6" customFormat="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="10" t="s">
+    <row r="7" spans="1:2" s="6" customFormat="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="10" t="s">
+    <row r="8" spans="1:2" s="6" customFormat="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="10" t="s">
+    <row r="9" spans="1:2" s="6" customFormat="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="10" t="s">
+    <row r="10" spans="1:2" s="6" customFormat="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="10" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="6" customFormat="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1"/>
     <row r="12" spans="1:2" s="6" customFormat="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="6" customFormat="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="1:2" s="6" customFormat="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:2" s="6" customFormat="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="12" t="s">
+    <row r="16" spans="1:2" s="6" customFormat="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="6" customFormat="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="12" t="s">
+    <row r="17" spans="1:2" s="6" customFormat="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="12" t="s">
+    <row r="18" spans="1:2" s="6" customFormat="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="6" customFormat="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="12" t="s">
+    <row r="19" spans="1:2" s="6" customFormat="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="6" customFormat="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="12" t="s">
+    <row r="20" spans="1:2" s="6" customFormat="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="6" customFormat="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:2" s="6" customFormat="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="12" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="12" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="12" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="12" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="12" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="12" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="12" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="12" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="12" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="12" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="12" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="12" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="12" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="12" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="12" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="12" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="12" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="12" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="12" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="12" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="12" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="12" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="12" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="12" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="12" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="12" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="12" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="12" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="12" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="12" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="12" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="12" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="17"/>
-      <c r="B59" s="12" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="12" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="12" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="17"/>
-      <c r="B62" s="12" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="12" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="12" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="17"/>
-      <c r="B67" s="12" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="17"/>
-      <c r="B68" s="12" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="12" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="17"/>
-      <c r="B70" s="12" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="17"/>
-      <c r="B71" s="12" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="17"/>
-      <c r="B72" s="12" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="17"/>
-      <c r="B73" s="12" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="18"/>
+      <c r="B74" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="17"/>
-      <c r="B74" s="12" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="18"/>
+      <c r="B75" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="17"/>
-      <c r="B75" s="12" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="18"/>
+      <c r="B76" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="17"/>
-      <c r="B76" s="12" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="18"/>
+      <c r="B77" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="17"/>
-      <c r="B77" s="12" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="18"/>
+      <c r="B78" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="17"/>
-      <c r="B78" s="12" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="18"/>
+      <c r="B79" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="12" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="18"/>
+      <c r="B80" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="17"/>
-      <c r="B80" s="12" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="12" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="18"/>
+      <c r="B82" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="12" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="18"/>
+      <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="12" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="18"/>
+      <c r="B84" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="17"/>
-      <c r="B84" s="12" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="18"/>
+      <c r="B85" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="17"/>
-      <c r="B85" s="12" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="18"/>
+      <c r="B86" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="17"/>
-      <c r="B86" s="12" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="18"/>
+      <c r="B87" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="17"/>
-      <c r="B87" s="12" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="18"/>
+      <c r="B88" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="17"/>
-      <c r="B88" s="12" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="18"/>
+      <c r="B89" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="17"/>
-      <c r="B89" s="12" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="18"/>
+      <c r="B90" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="17"/>
-      <c r="B90" s="12" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="19"/>
+      <c r="B91" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="12" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="18"/>
+      <c r="B94" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="17"/>
-      <c r="B94" s="12" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="18"/>
+      <c r="B95" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="17"/>
-      <c r="B95" s="12" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="18"/>
+      <c r="B96" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="17"/>
-      <c r="B96" s="12" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="18"/>
+      <c r="B97" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="17"/>
-      <c r="B97" s="12" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="18"/>
+      <c r="B98" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="17"/>
-      <c r="B98" s="12" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="18"/>
+      <c r="B99" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="12" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="18"/>
+      <c r="B100" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="17"/>
-      <c r="B100" s="12" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="18"/>
+      <c r="B101" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="12" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="18"/>
+      <c r="B102" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="17"/>
-      <c r="B102" s="12" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="18"/>
+      <c r="B103" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="18"/>
+      <c r="B104" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="17"/>
-      <c r="B103" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="17"/>
-      <c r="B104" s="12" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="18"/>
+      <c r="B107" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="17"/>
-      <c r="B107" s="12" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="18"/>
+      <c r="B108" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="17"/>
-      <c r="B108" s="12" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="18"/>
+      <c r="B109" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="17"/>
-      <c r="B109" s="12" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="18"/>
+      <c r="B110" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="17"/>
-      <c r="B110" s="12" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="18"/>
+      <c r="B111" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="17"/>
-      <c r="B111" s="12" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="18"/>
+      <c r="B112" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="17"/>
-      <c r="B112" s="12" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="18"/>
+      <c r="B113" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="17"/>
-      <c r="B113" s="12" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="18"/>
+      <c r="B114" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="17"/>
-      <c r="B114" s="12" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="18"/>
+      <c r="B115" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="17"/>
-      <c r="B115" s="12" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="18"/>
+      <c r="B116" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="17"/>
-      <c r="B116" s="12" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="18"/>
+      <c r="B117" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="18"/>
+      <c r="B120" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="17"/>
-      <c r="B117" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="17"/>
-      <c r="B120" s="12" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="18"/>
+      <c r="B121" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="17"/>
-      <c r="B121" s="12" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="18"/>
+      <c r="B122" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="17"/>
-      <c r="B122" s="12" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="18"/>
+      <c r="B123" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="17"/>
-      <c r="B123" s="12" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="18"/>
+      <c r="B124" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="17"/>
-      <c r="B124" s="12" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="18"/>
+      <c r="B125" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="17"/>
-      <c r="B125" s="12" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="18"/>
+      <c r="B126" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="17"/>
-      <c r="B126" s="12" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="18"/>
+      <c r="B127" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="17"/>
-      <c r="B127" s="12" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="18"/>
+      <c r="B128" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="17"/>
-      <c r="B128" s="12" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="18"/>
+      <c r="B129" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="17"/>
-      <c r="B129" s="12" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="18"/>
+      <c r="B130" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="17"/>
-      <c r="B130" s="12" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="18"/>
+      <c r="B131" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="17"/>
-      <c r="B131" s="12" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="18"/>
+      <c r="B132" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="17"/>
-      <c r="B132" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="17"/>
+      <c r="A133" s="18"/>
       <c r="B133" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="18"/>
+      <c r="A134" s="19"/>
       <c r="B134" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="14"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="14"/>
+      <c r="A138" s="21"/>
       <c r="B138" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="21"/>
+      <c r="B139" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="14"/>
-      <c r="B139" s="12" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="21"/>
+      <c r="B140" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="14"/>
-      <c r="B140" s="12" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" s="21"/>
+      <c r="B141" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="14"/>
-      <c r="B141" s="12" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" s="21"/>
+      <c r="B142" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="14"/>
-      <c r="B142" s="12" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="21"/>
+      <c r="B143" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="14"/>
-      <c r="B143" s="12" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="21"/>
+      <c r="B144" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="14"/>
-      <c r="B144" s="12" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="21"/>
+      <c r="B145" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="14"/>
-      <c r="B145" s="12" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="21"/>
+      <c r="B146" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="14"/>
-      <c r="B146" s="12" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="21"/>
+      <c r="B147" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="14"/>
-      <c r="B147" s="12" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="21"/>
+      <c r="B148" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="14"/>
-      <c r="B148" s="12" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="21"/>
+      <c r="B149" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="14"/>
-      <c r="B149" s="12" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="21"/>
+      <c r="B150" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="14"/>
-      <c r="B150" s="12" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="21"/>
+      <c r="B151" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="14"/>
-      <c r="B151" s="12" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="21"/>
+      <c r="B152" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="14"/>
-      <c r="B152" s="12" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="21"/>
+      <c r="B153" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="14"/>
-      <c r="B153" s="12" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="21"/>
+      <c r="B154" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="22"/>
+      <c r="B155" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="21"/>
+      <c r="B158" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="14"/>
-      <c r="B154" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="15"/>
-      <c r="B155" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B157" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="14"/>
-      <c r="B158" s="12" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="21"/>
+      <c r="B159" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="14"/>
-      <c r="B159" s="12" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="21"/>
+      <c r="B160" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="14"/>
-      <c r="B160" s="12" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="21"/>
+      <c r="B161" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="14"/>
-      <c r="B161" s="12" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="21"/>
+      <c r="B162" s="12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="14"/>
-      <c r="B162" s="12" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="21"/>
+      <c r="B163" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="14"/>
-      <c r="B163" s="12" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="21"/>
+      <c r="B164" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="14"/>
-      <c r="B164" s="12" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="21"/>
+      <c r="B165" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="14"/>
-      <c r="B165" s="12" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="21"/>
+      <c r="B166" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="22"/>
+      <c r="B167" s="12" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="14"/>
-      <c r="B166" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="15"/>
-      <c r="B167" s="12" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>104</v>
+      <c r="B169" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="21"/>
-      <c r="B170" s="11" t="s">
-        <v>236</v>
+      <c r="B170" s="12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="21"/>
-      <c r="B171" s="11" t="s">
-        <v>237</v>
+      <c r="B171" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="21"/>
-      <c r="B172" s="11" t="s">
-        <v>238</v>
+      <c r="B172" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="21"/>
-      <c r="B173" s="11" t="s">
-        <v>239</v>
+      <c r="B173" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="21"/>
-      <c r="B174" s="11" t="s">
-        <v>240</v>
+      <c r="B174" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="21"/>
-      <c r="B175" s="11" t="s">
-        <v>241</v>
+      <c r="B175" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="21"/>
-      <c r="B176" s="11" t="s">
-        <v>128</v>
+      <c r="B176" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="22"/>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="14"/>
+      <c r="B180" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="14"/>
+      <c r="B181" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="6" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" s="14"/>
+      <c r="B182" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="14"/>
+      <c r="B183" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="14"/>
+      <c r="B184" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="15"/>
+      <c r="B185" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="6" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="6" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A179:A185"/>
     <mergeCell ref="A169:A177"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A12:A37"/>
@@ -2354,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2362,153 +2414,153 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -2516,71 +2568,71 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -2588,94 +2640,94 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="253">
   <si>
     <t>Typescript</t>
   </si>
@@ -761,6 +761,24 @@
   </si>
   <si>
     <t>Time to Practice! Lets build a "Select &amp; Share a Place" App (Inc. Google Map)</t>
+  </si>
+  <si>
+    <t>Project Setup</t>
+  </si>
+  <si>
+    <t>Getting User Input</t>
+  </si>
+  <si>
+    <t>Settign Up a Google API Key</t>
+  </si>
+  <si>
+    <t>Using Axios to fetch coordinates for an Entered Address</t>
+  </si>
+  <si>
+    <t>Rendering a Map with Google Maps (Incl. Types)</t>
+  </si>
+  <si>
+    <t>Working with Maps without Credit Cards</t>
   </si>
 </sst>
 </file>
@@ -927,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -941,16 +959,25 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,13 +989,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1255,11 +1282,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179:A185"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A187" sqref="A187:B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1338,43 +1365,43 @@
       <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1">
       <c r="A14" s="18"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1">
       <c r="A17" s="18"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1">
       <c r="A18" s="18"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1493,7 +1520,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -1501,91 +1528,91 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="18"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="18"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -1593,55 +1620,55 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="18"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="18"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -1649,163 +1676,163 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="18"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="18"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="18"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="18"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="18"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="18"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="18"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="18"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="18"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="18"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="18"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="18"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="18"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="18"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="18"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="18"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="18"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="18"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="18"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="18"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="18"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="18"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="18"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="18"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="18"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="19"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -1813,73 +1840,73 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="18"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="18"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="18"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="18"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="18"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="18"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="18"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="18"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="18"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="18"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="18"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="12" t="s">
@@ -1887,73 +1914,73 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="18"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="18"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="18"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="12" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="18"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="18"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="18"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="18"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="18"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="18"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="18"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="18"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="12" t="s">
@@ -1961,97 +1988,97 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="18"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="18"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="18"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="18"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="18"/>
+      <c r="A124" s="21"/>
       <c r="B124" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="18"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="18"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="18"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="18"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="18"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="18"/>
+      <c r="A130" s="21"/>
       <c r="B130" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="18"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="18"/>
+      <c r="A132" s="21"/>
       <c r="B132" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="18"/>
+      <c r="A133" s="21"/>
       <c r="B133" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="19"/>
+      <c r="A134" s="22"/>
       <c r="B134" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="20" t="s">
+      <c r="A136" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B136" s="12" t="s">
@@ -2059,121 +2086,121 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="21"/>
+      <c r="A137" s="14"/>
       <c r="B137" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="21"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="21"/>
+      <c r="A139" s="14"/>
       <c r="B139" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="21"/>
+      <c r="A140" s="14"/>
       <c r="B140" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="21"/>
+      <c r="A141" s="14"/>
       <c r="B141" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="21"/>
+      <c r="A142" s="14"/>
       <c r="B142" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="21"/>
+      <c r="A143" s="14"/>
       <c r="B143" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="21"/>
+      <c r="A144" s="14"/>
       <c r="B144" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="21"/>
+      <c r="A145" s="14"/>
       <c r="B145" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="21"/>
+      <c r="A146" s="14"/>
       <c r="B146" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="21"/>
+      <c r="A147" s="14"/>
       <c r="B147" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="21"/>
+      <c r="A148" s="14"/>
       <c r="B148" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="21"/>
+      <c r="A149" s="14"/>
       <c r="B149" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="21"/>
+      <c r="A150" s="14"/>
       <c r="B150" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="21"/>
+      <c r="A151" s="14"/>
       <c r="B151" s="12" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="21"/>
+      <c r="A152" s="14"/>
       <c r="B152" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="21"/>
+      <c r="A153" s="14"/>
       <c r="B153" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="21"/>
+      <c r="A154" s="14"/>
       <c r="B154" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="22"/>
+      <c r="A155" s="15"/>
       <c r="B155" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="20" t="s">
+      <c r="A157" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="12" t="s">
@@ -2181,67 +2208,67 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="21"/>
+      <c r="A158" s="14"/>
       <c r="B158" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="21"/>
+      <c r="A159" s="14"/>
       <c r="B159" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="21"/>
+      <c r="A160" s="14"/>
       <c r="B160" s="12" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="21"/>
+      <c r="A161" s="14"/>
       <c r="B161" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="21"/>
+      <c r="A162" s="14"/>
       <c r="B162" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="21"/>
+      <c r="A163" s="14"/>
       <c r="B163" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="21"/>
+      <c r="A164" s="14"/>
       <c r="B164" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="21"/>
+      <c r="A165" s="14"/>
       <c r="B165" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="21"/>
+      <c r="A166" s="14"/>
       <c r="B166" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="22"/>
+      <c r="A167" s="15"/>
       <c r="B167" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="20" t="s">
+      <c r="A169" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B169" s="12" t="s">
@@ -2249,49 +2276,49 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="21"/>
+      <c r="A170" s="14"/>
       <c r="B170" s="12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="21"/>
+      <c r="A171" s="14"/>
       <c r="B171" s="12" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="21"/>
+      <c r="A172" s="14"/>
       <c r="B172" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="21"/>
+      <c r="A173" s="14"/>
       <c r="B173" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="21"/>
+      <c r="A174" s="14"/>
       <c r="B174" s="12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="21"/>
+      <c r="A175" s="14"/>
       <c r="B175" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="21"/>
+      <c r="A176" s="14"/>
       <c r="B176" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="22"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="12" t="s">
         <v>241</v>
       </c>
@@ -2300,68 +2327,114 @@
       <c r="A179" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="14"/>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="14"/>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="12" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="14"/>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="14"/>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="14"/>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="15"/>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="23" t="s">
         <v>246</v>
       </c>
+      <c r="B187" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="24"/>
+      <c r="B188" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="24"/>
+      <c r="B189" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="24"/>
+      <c r="B190" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="24"/>
+      <c r="B191" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="24"/>
+      <c r="B192" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="24"/>
+      <c r="B193" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="25"/>
+      <c r="B194" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="6" t="s">
+    <row r="197" spans="1:2">
+      <c r="A197" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="6" t="s">
+    <row r="198" spans="1:2">
+      <c r="A198" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A187:A194"/>
     <mergeCell ref="A179:A185"/>
     <mergeCell ref="A169:A177"/>
     <mergeCell ref="A2:A10"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Udemy" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="263">
   <si>
     <t>Typescript</t>
   </si>
@@ -779,6 +779,36 @@
   </si>
   <si>
     <t>Working with Maps without Credit Cards</t>
+  </si>
+  <si>
+    <t>Setting up a React + Typescript Project</t>
+  </si>
+  <si>
+    <t>How Do Rect + Typescritp work together?</t>
+  </si>
+  <si>
+    <t>Working with rpops and types of props</t>
+  </si>
+  <si>
+    <t>Gettign User inputs with "refs"</t>
+  </si>
+  <si>
+    <t>Cross-Component Communication</t>
+  </si>
+  <si>
+    <t>Working with state and types</t>
+  </si>
+  <si>
+    <t>Managing State Better</t>
+  </si>
+  <si>
+    <t>More Props and State Work</t>
+  </si>
+  <si>
+    <t>Adding Styling</t>
+  </si>
+  <si>
+    <t>Types for Other React features (e.g. Redux &amp; Routing)</t>
   </si>
 </sst>
 </file>
@@ -959,6 +989,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -988,15 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1282,11 +1312,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187:B194"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196:B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1305,7 +1335,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1313,56 +1343,56 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1"/>
     <row r="12" spans="1:2" s="6" customFormat="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1370,157 +1400,157 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -1528,91 +1558,91 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="21"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="21"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="21"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="21"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="21"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="21"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="21"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="21"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="21"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="21"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="21"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="21"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -1620,55 +1650,55 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="21"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="21"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="21"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="21"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="21"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="21"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="21"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="21"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -1676,163 +1706,163 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="21"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="21"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="21"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="21"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="21"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="21"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="21"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="21"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="21"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="21"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="21"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="21"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="21"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="21"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="21"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="21"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="21"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="21"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="21"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="21"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="21"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="21"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="21"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="21"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="21"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="22"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -1840,73 +1870,73 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="21"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="21"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="21"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="21"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="21"/>
+      <c r="A98" s="24"/>
       <c r="B98" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="21"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="21"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="21"/>
+      <c r="A101" s="24"/>
       <c r="B101" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="21"/>
+      <c r="A102" s="24"/>
       <c r="B102" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="21"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="21"/>
+      <c r="A104" s="24"/>
       <c r="B104" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="12" t="s">
@@ -1914,73 +1944,73 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="21"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="21"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="21"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="12" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="21"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="21"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="21"/>
+      <c r="A112" s="24"/>
       <c r="B112" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="21"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="21"/>
+      <c r="A114" s="24"/>
       <c r="B114" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="21"/>
+      <c r="A115" s="24"/>
       <c r="B115" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="21"/>
+      <c r="A116" s="24"/>
       <c r="B116" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="21"/>
+      <c r="A117" s="24"/>
       <c r="B117" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="12" t="s">
@@ -1988,97 +2018,97 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="21"/>
+      <c r="A120" s="24"/>
       <c r="B120" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="21"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="21"/>
+      <c r="A122" s="24"/>
       <c r="B122" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="21"/>
+      <c r="A123" s="24"/>
       <c r="B123" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="21"/>
+      <c r="A124" s="24"/>
       <c r="B124" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="21"/>
+      <c r="A125" s="24"/>
       <c r="B125" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="21"/>
+      <c r="A126" s="24"/>
       <c r="B126" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="21"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="21"/>
+      <c r="A128" s="24"/>
       <c r="B128" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="21"/>
+      <c r="A129" s="24"/>
       <c r="B129" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="21"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="21"/>
+      <c r="A131" s="24"/>
       <c r="B131" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="21"/>
+      <c r="A132" s="24"/>
       <c r="B132" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="21"/>
+      <c r="A133" s="24"/>
       <c r="B133" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="22"/>
+      <c r="A134" s="25"/>
       <c r="B134" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B136" s="12" t="s">
@@ -2086,121 +2116,121 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="14"/>
+      <c r="A137" s="17"/>
       <c r="B137" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="14"/>
+      <c r="A138" s="17"/>
       <c r="B138" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="14"/>
+      <c r="A139" s="17"/>
       <c r="B139" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="14"/>
+      <c r="A140" s="17"/>
       <c r="B140" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="14"/>
+      <c r="A141" s="17"/>
       <c r="B141" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="14"/>
+      <c r="A142" s="17"/>
       <c r="B142" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="14"/>
+      <c r="A143" s="17"/>
       <c r="B143" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="14"/>
+      <c r="A144" s="17"/>
       <c r="B144" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="14"/>
+      <c r="A145" s="17"/>
       <c r="B145" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="14"/>
+      <c r="A146" s="17"/>
       <c r="B146" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="14"/>
+      <c r="A147" s="17"/>
       <c r="B147" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="14"/>
+      <c r="A148" s="17"/>
       <c r="B148" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="14"/>
+      <c r="A149" s="17"/>
       <c r="B149" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="14"/>
+      <c r="A150" s="17"/>
       <c r="B150" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="14"/>
+      <c r="A151" s="17"/>
       <c r="B151" s="12" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="14"/>
+      <c r="A152" s="17"/>
       <c r="B152" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="14"/>
+      <c r="A153" s="17"/>
       <c r="B153" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="14"/>
+      <c r="A154" s="17"/>
       <c r="B154" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="15"/>
+      <c r="A155" s="18"/>
       <c r="B155" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="12" t="s">
@@ -2208,67 +2238,67 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="14"/>
+      <c r="A158" s="17"/>
       <c r="B158" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="14"/>
+      <c r="A159" s="17"/>
       <c r="B159" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="14"/>
+      <c r="A160" s="17"/>
       <c r="B160" s="12" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="14"/>
+      <c r="A161" s="17"/>
       <c r="B161" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="14"/>
+      <c r="A162" s="17"/>
       <c r="B162" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="14"/>
+      <c r="A163" s="17"/>
       <c r="B163" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="14"/>
+      <c r="A164" s="17"/>
       <c r="B164" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="14"/>
+      <c r="A165" s="17"/>
       <c r="B165" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="14"/>
+      <c r="A166" s="17"/>
       <c r="B166" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="15"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B169" s="12" t="s">
@@ -2276,55 +2306,55 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="14"/>
+      <c r="A170" s="17"/>
       <c r="B170" s="12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="14"/>
+      <c r="A171" s="17"/>
       <c r="B171" s="12" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="14"/>
+      <c r="A172" s="17"/>
       <c r="B172" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="14"/>
+      <c r="A173" s="17"/>
       <c r="B173" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="14"/>
+      <c r="A174" s="17"/>
       <c r="B174" s="12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="14"/>
+      <c r="A175" s="17"/>
       <c r="B175" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="14"/>
+      <c r="A176" s="17"/>
       <c r="B176" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="15"/>
+      <c r="A177" s="18"/>
       <c r="B177" s="12" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B179" s="12" t="s">
@@ -2332,108 +2362,184 @@
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="14"/>
+      <c r="A180" s="17"/>
       <c r="B180" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="14"/>
+      <c r="A181" s="17"/>
       <c r="B181" s="12" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="14"/>
+      <c r="A182" s="17"/>
       <c r="B182" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="14"/>
+      <c r="A183" s="17"/>
       <c r="B183" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="14"/>
+      <c r="A184" s="17"/>
       <c r="B184" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="15"/>
+      <c r="A185" s="18"/>
       <c r="B185" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="24"/>
-      <c r="B188" s="9" t="s">
+      <c r="A188" s="17"/>
+      <c r="B188" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="24"/>
-      <c r="B189" s="9" t="s">
+      <c r="A189" s="17"/>
+      <c r="B189" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="24"/>
-      <c r="B190" s="9" t="s">
+      <c r="A190" s="17"/>
+      <c r="B190" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="24"/>
-      <c r="B191" s="9" t="s">
+      <c r="A191" s="17"/>
+      <c r="B191" s="12" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="24"/>
-      <c r="B192" s="9" t="s">
+      <c r="A192" s="17"/>
+      <c r="B192" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="24"/>
-      <c r="B193" s="9" t="s">
+      <c r="A193" s="17"/>
+      <c r="B193" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="25"/>
-      <c r="B194" s="9" t="s">
+      <c r="A194" s="18"/>
+      <c r="B194" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="B196" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="14"/>
+      <c r="B197" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="14"/>
+      <c r="B198" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="14"/>
+      <c r="B199" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="14"/>
+      <c r="B200" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="14"/>
+      <c r="B201" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="14"/>
+      <c r="B202" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="14"/>
+      <c r="B203" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="14"/>
+      <c r="B204" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="14"/>
+      <c r="B205" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="14"/>
+      <c r="B206" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="14"/>
+      <c r="B207" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="15"/>
+      <c r="B208" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="6" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A196:A208"/>
     <mergeCell ref="A187:A194"/>
     <mergeCell ref="A179:A185"/>
     <mergeCell ref="A169:A177"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -787,9 +787,6 @@
     <t>How Do Rect + Typescritp work together?</t>
   </si>
   <si>
-    <t>Working with rpops and types of props</t>
-  </si>
-  <si>
     <t>Gettign User inputs with "refs"</t>
   </si>
   <si>
@@ -809,6 +806,9 @@
   </si>
   <si>
     <t>Types for Other React features (e.g. Redux &amp; Routing)</t>
+  </si>
+  <si>
+    <t>Working with pops and types of props</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -989,15 +989,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1301,7 +1292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1335,7 +1326,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1343,56 +1334,56 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1"/>
     <row r="12" spans="1:2" s="6" customFormat="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1400,157 +1391,157 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1">
-      <c r="A13" s="21"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1">
-      <c r="A14" s="21"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1">
-      <c r="A15" s="21"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1">
-      <c r="A17" s="21"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1">
-      <c r="A20" s="21"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1">
-      <c r="A21" s="21"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="12" t="s">
@@ -1558,91 +1549,91 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="24"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="24"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="24"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="24"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="24"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="24"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="24"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="24"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="24"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="24"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="24"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="24"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="24"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -1650,55 +1641,55 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="24"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="24"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="24"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="24"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="24"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="24"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="24"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="24"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -1706,163 +1697,163 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="24"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="24"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="24"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="24"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="24"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="24"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="24"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="24"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="24"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="24"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="24"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="24"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="24"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="24"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="24"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="24"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="24"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="24"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="12" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="24"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="12" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="24"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="24"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="24"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="25"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -1870,73 +1861,73 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="24"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="24"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="24"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="24"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="24"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="24"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="24"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="24"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="24"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="24"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="24"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B106" s="12" t="s">
@@ -1944,73 +1935,73 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="24"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="24"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="24"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="12" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="24"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="24"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="24"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="24"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="24"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="24"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="24"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="24"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="12" t="s">
@@ -2018,97 +2009,97 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="24"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="24"/>
+      <c r="A121" s="21"/>
       <c r="B121" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="24"/>
+      <c r="A122" s="21"/>
       <c r="B122" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="24"/>
+      <c r="A123" s="21"/>
       <c r="B123" s="12" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="24"/>
+      <c r="A124" s="21"/>
       <c r="B124" s="12" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="24"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="12" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="24"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="24"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="24"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="24"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="12" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="24"/>
+      <c r="A130" s="21"/>
       <c r="B130" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="24"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="24"/>
+      <c r="A132" s="21"/>
       <c r="B132" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="24"/>
+      <c r="A133" s="21"/>
       <c r="B133" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="25"/>
+      <c r="A134" s="22"/>
       <c r="B134" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B136" s="12" t="s">
@@ -2116,121 +2107,121 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="17"/>
+      <c r="A137" s="14"/>
       <c r="B137" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="17"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="17"/>
+      <c r="A139" s="14"/>
       <c r="B139" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="17"/>
+      <c r="A140" s="14"/>
       <c r="B140" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="17"/>
+      <c r="A141" s="14"/>
       <c r="B141" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="17"/>
+      <c r="A142" s="14"/>
       <c r="B142" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="17"/>
+      <c r="A143" s="14"/>
       <c r="B143" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="17"/>
+      <c r="A144" s="14"/>
       <c r="B144" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="17"/>
+      <c r="A145" s="14"/>
       <c r="B145" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="17"/>
+      <c r="A146" s="14"/>
       <c r="B146" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="17"/>
+      <c r="A147" s="14"/>
       <c r="B147" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="17"/>
+      <c r="A148" s="14"/>
       <c r="B148" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="17"/>
+      <c r="A149" s="14"/>
       <c r="B149" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="17"/>
+      <c r="A150" s="14"/>
       <c r="B150" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="17"/>
+      <c r="A151" s="14"/>
       <c r="B151" s="12" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="17"/>
+      <c r="A152" s="14"/>
       <c r="B152" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="17"/>
+      <c r="A153" s="14"/>
       <c r="B153" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="17"/>
+      <c r="A154" s="14"/>
       <c r="B154" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="18"/>
+      <c r="A155" s="15"/>
       <c r="B155" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B157" s="12" t="s">
@@ -2238,67 +2229,67 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="17"/>
+      <c r="A158" s="14"/>
       <c r="B158" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="17"/>
+      <c r="A159" s="14"/>
       <c r="B159" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="17"/>
+      <c r="A160" s="14"/>
       <c r="B160" s="12" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="17"/>
+      <c r="A161" s="14"/>
       <c r="B161" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="17"/>
+      <c r="A162" s="14"/>
       <c r="B162" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="17"/>
+      <c r="A163" s="14"/>
       <c r="B163" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="17"/>
+      <c r="A164" s="14"/>
       <c r="B164" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="17"/>
+      <c r="A165" s="14"/>
       <c r="B165" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="17"/>
+      <c r="A166" s="14"/>
       <c r="B166" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="18"/>
+      <c r="A167" s="15"/>
       <c r="B167" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B169" s="12" t="s">
@@ -2306,55 +2297,55 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="17"/>
+      <c r="A170" s="14"/>
       <c r="B170" s="12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="17"/>
+      <c r="A171" s="14"/>
       <c r="B171" s="12" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="17"/>
+      <c r="A172" s="14"/>
       <c r="B172" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="17"/>
+      <c r="A173" s="14"/>
       <c r="B173" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="17"/>
+      <c r="A174" s="14"/>
       <c r="B174" s="12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="17"/>
+      <c r="A175" s="14"/>
       <c r="B175" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="17"/>
+      <c r="A176" s="14"/>
       <c r="B176" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="18"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="12" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="16" t="s">
+      <c r="A179" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B179" s="12" t="s">
@@ -2362,43 +2353,43 @@
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="17"/>
+      <c r="A180" s="14"/>
       <c r="B180" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="17"/>
+      <c r="A181" s="14"/>
       <c r="B181" s="12" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="17"/>
+      <c r="A182" s="14"/>
       <c r="B182" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="17"/>
+      <c r="A183" s="14"/>
       <c r="B183" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="17"/>
+      <c r="A184" s="14"/>
       <c r="B184" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="18"/>
+      <c r="A185" s="15"/>
       <c r="B185" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="13" t="s">
         <v>246</v>
       </c>
       <c r="B187" s="12" t="s">
@@ -2406,43 +2397,43 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="17"/>
+      <c r="A188" s="14"/>
       <c r="B188" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="17"/>
+      <c r="A189" s="14"/>
       <c r="B189" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="17"/>
+      <c r="A190" s="14"/>
       <c r="B190" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="17"/>
+      <c r="A191" s="14"/>
       <c r="B191" s="12" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="17"/>
+      <c r="A192" s="14"/>
       <c r="B192" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="17"/>
+      <c r="A193" s="14"/>
       <c r="B193" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="18"/>
+      <c r="A194" s="15"/>
       <c r="B194" s="12" t="s">
         <v>186</v>
       </c>
@@ -2451,79 +2442,79 @@
       <c r="A196" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="14"/>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="14"/>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="14"/>
-      <c r="B199" s="9" t="s">
-        <v>255</v>
+      <c r="B199" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="14"/>
-      <c r="B200" s="9" t="s">
-        <v>256</v>
+      <c r="B200" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="14"/>
-      <c r="B201" s="9" t="s">
-        <v>257</v>
+      <c r="B201" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="14"/>
-      <c r="B202" s="9" t="s">
-        <v>258</v>
+      <c r="B202" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="14"/>
-      <c r="B203" s="9" t="s">
-        <v>259</v>
+      <c r="B203" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="14"/>
-      <c r="B204" s="9" t="s">
-        <v>260</v>
+      <c r="B204" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="14"/>
-      <c r="B205" s="9" t="s">
-        <v>261</v>
+      <c r="B205" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="14"/>
-      <c r="B206" s="9" t="s">
-        <v>262</v>
+      <c r="B206" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="14"/>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="15"/>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="12" t="s">
         <v>186</v>
       </c>
     </row>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="269">
   <si>
     <t>Typescript</t>
   </si>
@@ -809,6 +809,24 @@
   </si>
   <si>
     <t>Working with pops and types of props</t>
+  </si>
+  <si>
+    <t>Executing Typescript Code with Node.JS</t>
+  </si>
+  <si>
+    <t>Setting Up a Project</t>
+  </si>
+  <si>
+    <t>Finished Setup &amp; Working with Types (In NodeJS + Express)</t>
+  </si>
+  <si>
+    <t>Adding Middleware and Types</t>
+  </si>
+  <si>
+    <t>Working with Controllers and Parsing with Request Bodies</t>
+  </si>
+  <si>
+    <t>More CRUD Operations</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1303,11 +1321,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A196" sqref="A196:B208"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210:B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2518,18 +2536,70 @@
         <v>186</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="6" t="s">
+    <row r="210" spans="1:2">
+      <c r="A210" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="6" t="s">
+      <c r="B210" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="14"/>
+      <c r="B211" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="14"/>
+      <c r="B212" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="14"/>
+      <c r="B213" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="14"/>
+      <c r="B214" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="14"/>
+      <c r="B215" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="14"/>
+      <c r="B216" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="14"/>
+      <c r="B217" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="15"/>
+      <c r="B218" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A210:A218"/>
     <mergeCell ref="A196:A208"/>
     <mergeCell ref="A187:A194"/>
     <mergeCell ref="A179:A185"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -902,7 +902,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,12 +918,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1006,16 +1000,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1028,14 +1012,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1310,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1324,8 +1308,8 @@
   <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210:B218"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220:B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1344,7 +1328,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1352,56 +1336,56 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1">
-      <c r="A6" s="16"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1">
-      <c r="A8" s="16"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1"/>
     <row r="12" spans="1:2" s="6" customFormat="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1409,1211 +1393,1212 @@
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1">
-      <c r="A13" s="18"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1">
-      <c r="A17" s="18"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1">
-      <c r="A19" s="18"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1">
-      <c r="A20" s="18"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1">
-      <c r="A21" s="18"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="14"/>
+      <c r="B45" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="12" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="14"/>
+      <c r="B52" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="14"/>
+      <c r="B53" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="10" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="10" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="14"/>
+      <c r="B61" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="12" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="12" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="12" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="12" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="14"/>
+      <c r="B69" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="12" t="s">
+      <c r="A71" s="14"/>
+      <c r="B71" s="10" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="12" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="12" t="s">
+      <c r="A73" s="14"/>
+      <c r="B73" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="12" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="12" t="s">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="12" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="14"/>
+      <c r="B77" s="10" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="12" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="12" t="s">
+      <c r="A79" s="14"/>
+      <c r="B79" s="10" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="12" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="14"/>
+      <c r="B81" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="12" t="s">
+      <c r="A82" s="14"/>
+      <c r="B82" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="12" t="s">
+      <c r="A83" s="14"/>
+      <c r="B83" s="10" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="12" t="s">
+      <c r="A84" s="14"/>
+      <c r="B84" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="21"/>
-      <c r="B85" s="12" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="12" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="12" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="10" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="12" t="s">
+      <c r="A88" s="14"/>
+      <c r="B88" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="12" t="s">
+      <c r="A89" s="14"/>
+      <c r="B89" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="21"/>
-      <c r="B90" s="12" t="s">
+      <c r="A90" s="14"/>
+      <c r="B90" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="22"/>
-      <c r="B91" s="12" t="s">
+      <c r="A91" s="15"/>
+      <c r="B91" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="12" t="s">
+      <c r="A94" s="14"/>
+      <c r="B94" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="21"/>
-      <c r="B95" s="12" t="s">
+      <c r="A95" s="14"/>
+      <c r="B95" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="12" t="s">
+      <c r="A96" s="14"/>
+      <c r="B96" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="21"/>
-      <c r="B97" s="12" t="s">
+      <c r="A97" s="14"/>
+      <c r="B97" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="21"/>
-      <c r="B98" s="12" t="s">
+      <c r="A98" s="14"/>
+      <c r="B98" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="12" t="s">
+      <c r="A99" s="14"/>
+      <c r="B99" s="10" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="21"/>
-      <c r="B100" s="12" t="s">
+      <c r="A100" s="14"/>
+      <c r="B100" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="21"/>
-      <c r="B101" s="12" t="s">
+      <c r="A101" s="14"/>
+      <c r="B101" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="21"/>
-      <c r="B102" s="12" t="s">
+      <c r="A102" s="14"/>
+      <c r="B102" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="21"/>
-      <c r="B103" s="12" t="s">
+      <c r="A103" s="14"/>
+      <c r="B103" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="21"/>
-      <c r="B104" s="12" t="s">
+      <c r="A104" s="14"/>
+      <c r="B104" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="21"/>
-      <c r="B107" s="12" t="s">
+      <c r="A107" s="14"/>
+      <c r="B107" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="21"/>
-      <c r="B108" s="12" t="s">
+      <c r="A108" s="14"/>
+      <c r="B108" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="21"/>
-      <c r="B109" s="12" t="s">
+      <c r="A109" s="14"/>
+      <c r="B109" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="21"/>
-      <c r="B110" s="12" t="s">
+      <c r="A110" s="14"/>
+      <c r="B110" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="21"/>
-      <c r="B111" s="12" t="s">
+      <c r="A111" s="14"/>
+      <c r="B111" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="21"/>
-      <c r="B112" s="12" t="s">
+      <c r="A112" s="14"/>
+      <c r="B112" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="21"/>
-      <c r="B113" s="12" t="s">
+      <c r="A113" s="14"/>
+      <c r="B113" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="21"/>
-      <c r="B114" s="12" t="s">
+      <c r="A114" s="14"/>
+      <c r="B114" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="21"/>
-      <c r="B115" s="12" t="s">
+      <c r="A115" s="14"/>
+      <c r="B115" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="21"/>
-      <c r="B116" s="12" t="s">
+      <c r="A116" s="14"/>
+      <c r="B116" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="21"/>
-      <c r="B117" s="12" t="s">
+      <c r="A117" s="14"/>
+      <c r="B117" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="21"/>
-      <c r="B120" s="12" t="s">
+      <c r="A120" s="14"/>
+      <c r="B120" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="21"/>
-      <c r="B121" s="12" t="s">
+      <c r="A121" s="14"/>
+      <c r="B121" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="21"/>
-      <c r="B122" s="12" t="s">
+      <c r="A122" s="14"/>
+      <c r="B122" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="21"/>
-      <c r="B123" s="12" t="s">
+      <c r="A123" s="14"/>
+      <c r="B123" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="21"/>
-      <c r="B124" s="12" t="s">
+      <c r="A124" s="14"/>
+      <c r="B124" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="21"/>
-      <c r="B125" s="12" t="s">
+      <c r="A125" s="14"/>
+      <c r="B125" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="21"/>
-      <c r="B126" s="12" t="s">
+      <c r="A126" s="14"/>
+      <c r="B126" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="21"/>
-      <c r="B127" s="12" t="s">
+      <c r="A127" s="14"/>
+      <c r="B127" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="21"/>
-      <c r="B128" s="12" t="s">
+      <c r="A128" s="14"/>
+      <c r="B128" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="21"/>
-      <c r="B129" s="12" t="s">
+      <c r="A129" s="14"/>
+      <c r="B129" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="21"/>
-      <c r="B130" s="12" t="s">
+      <c r="A130" s="14"/>
+      <c r="B130" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="21"/>
-      <c r="B131" s="12" t="s">
+      <c r="A131" s="14"/>
+      <c r="B131" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="21"/>
-      <c r="B132" s="12" t="s">
+      <c r="A132" s="14"/>
+      <c r="B132" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="21"/>
-      <c r="B133" s="12" t="s">
+      <c r="A133" s="14"/>
+      <c r="B133" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="22"/>
-      <c r="B134" s="12" t="s">
+      <c r="A134" s="15"/>
+      <c r="B134" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="14"/>
-      <c r="B137" s="12" t="s">
+      <c r="A137" s="17"/>
+      <c r="B137" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="14"/>
-      <c r="B138" s="12" t="s">
+      <c r="A138" s="17"/>
+      <c r="B138" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="14"/>
-      <c r="B139" s="12" t="s">
+      <c r="A139" s="17"/>
+      <c r="B139" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="14"/>
-      <c r="B140" s="12" t="s">
+      <c r="A140" s="17"/>
+      <c r="B140" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="14"/>
-      <c r="B141" s="12" t="s">
+      <c r="A141" s="17"/>
+      <c r="B141" s="10" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="14"/>
-      <c r="B142" s="12" t="s">
+      <c r="A142" s="17"/>
+      <c r="B142" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="14"/>
-      <c r="B143" s="12" t="s">
+      <c r="A143" s="17"/>
+      <c r="B143" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="14"/>
-      <c r="B144" s="12" t="s">
+      <c r="A144" s="17"/>
+      <c r="B144" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="14"/>
-      <c r="B145" s="12" t="s">
+      <c r="A145" s="17"/>
+      <c r="B145" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="14"/>
-      <c r="B146" s="12" t="s">
+      <c r="A146" s="17"/>
+      <c r="B146" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="14"/>
-      <c r="B147" s="12" t="s">
+      <c r="A147" s="17"/>
+      <c r="B147" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="14"/>
-      <c r="B148" s="12" t="s">
+      <c r="A148" s="17"/>
+      <c r="B148" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="14"/>
-      <c r="B149" s="12" t="s">
+      <c r="A149" s="17"/>
+      <c r="B149" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="14"/>
-      <c r="B150" s="12" t="s">
+      <c r="A150" s="17"/>
+      <c r="B150" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="14"/>
-      <c r="B151" s="12" t="s">
+      <c r="A151" s="17"/>
+      <c r="B151" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="14"/>
-      <c r="B152" s="12" t="s">
+      <c r="A152" s="17"/>
+      <c r="B152" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="14"/>
-      <c r="B153" s="12" t="s">
+      <c r="A153" s="17"/>
+      <c r="B153" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="14"/>
-      <c r="B154" s="12" t="s">
+      <c r="A154" s="17"/>
+      <c r="B154" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="15"/>
-      <c r="B155" s="12" t="s">
+      <c r="A155" s="18"/>
+      <c r="B155" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="14"/>
-      <c r="B158" s="12" t="s">
+      <c r="A158" s="17"/>
+      <c r="B158" s="10" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="14"/>
-      <c r="B159" s="12" t="s">
+      <c r="A159" s="17"/>
+      <c r="B159" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="14"/>
-      <c r="B160" s="12" t="s">
+      <c r="A160" s="17"/>
+      <c r="B160" s="10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="14"/>
-      <c r="B161" s="12" t="s">
+      <c r="A161" s="17"/>
+      <c r="B161" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="14"/>
-      <c r="B162" s="12" t="s">
+      <c r="A162" s="17"/>
+      <c r="B162" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="14"/>
-      <c r="B163" s="12" t="s">
+      <c r="A163" s="17"/>
+      <c r="B163" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="14"/>
-      <c r="B164" s="12" t="s">
+      <c r="A164" s="17"/>
+      <c r="B164" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="14"/>
-      <c r="B165" s="12" t="s">
+      <c r="A165" s="17"/>
+      <c r="B165" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="14"/>
-      <c r="B166" s="12" t="s">
+      <c r="A166" s="17"/>
+      <c r="B166" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="15"/>
-      <c r="B167" s="12" t="s">
+      <c r="A167" s="18"/>
+      <c r="B167" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="14"/>
-      <c r="B170" s="12" t="s">
+      <c r="A170" s="17"/>
+      <c r="B170" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="14"/>
-      <c r="B171" s="12" t="s">
+      <c r="A171" s="17"/>
+      <c r="B171" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="14"/>
-      <c r="B172" s="12" t="s">
+      <c r="A172" s="17"/>
+      <c r="B172" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="14"/>
-      <c r="B173" s="12" t="s">
+      <c r="A173" s="17"/>
+      <c r="B173" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="14"/>
-      <c r="B174" s="12" t="s">
+      <c r="A174" s="17"/>
+      <c r="B174" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="14"/>
-      <c r="B175" s="12" t="s">
+      <c r="A175" s="17"/>
+      <c r="B175" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="14"/>
-      <c r="B176" s="12" t="s">
+      <c r="A176" s="17"/>
+      <c r="B176" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="15"/>
-      <c r="B177" s="12" t="s">
+      <c r="A177" s="18"/>
+      <c r="B177" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="14"/>
-      <c r="B180" s="12" t="s">
+      <c r="A180" s="17"/>
+      <c r="B180" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="14"/>
-      <c r="B181" s="12" t="s">
+      <c r="A181" s="17"/>
+      <c r="B181" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="14"/>
-      <c r="B182" s="12" t="s">
+      <c r="A182" s="17"/>
+      <c r="B182" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="14"/>
-      <c r="B183" s="12" t="s">
+      <c r="A183" s="17"/>
+      <c r="B183" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="14"/>
-      <c r="B184" s="12" t="s">
+      <c r="A184" s="17"/>
+      <c r="B184" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="15"/>
-      <c r="B185" s="12" t="s">
+      <c r="A185" s="18"/>
+      <c r="B185" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="13" t="s">
+      <c r="A187" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="14"/>
-      <c r="B188" s="12" t="s">
+      <c r="A188" s="17"/>
+      <c r="B188" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="14"/>
-      <c r="B189" s="12" t="s">
+      <c r="A189" s="17"/>
+      <c r="B189" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="14"/>
-      <c r="B190" s="12" t="s">
+      <c r="A190" s="17"/>
+      <c r="B190" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="14"/>
-      <c r="B191" s="12" t="s">
+      <c r="A191" s="17"/>
+      <c r="B191" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="14"/>
-      <c r="B192" s="12" t="s">
+      <c r="A192" s="17"/>
+      <c r="B192" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="14"/>
-      <c r="B193" s="12" t="s">
+      <c r="A193" s="17"/>
+      <c r="B193" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="15"/>
-      <c r="B194" s="12" t="s">
+      <c r="A194" s="18"/>
+      <c r="B194" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="13" t="s">
+      <c r="A196" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B196" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="14"/>
-      <c r="B197" s="12" t="s">
+      <c r="A197" s="17"/>
+      <c r="B197" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="14"/>
-      <c r="B198" s="12" t="s">
+      <c r="A198" s="17"/>
+      <c r="B198" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="14"/>
-      <c r="B199" s="12" t="s">
+      <c r="A199" s="17"/>
+      <c r="B199" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="14"/>
-      <c r="B200" s="12" t="s">
+      <c r="A200" s="17"/>
+      <c r="B200" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="14"/>
-      <c r="B201" s="12" t="s">
+      <c r="A201" s="17"/>
+      <c r="B201" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="14"/>
-      <c r="B202" s="12" t="s">
+      <c r="A202" s="17"/>
+      <c r="B202" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="14"/>
-      <c r="B203" s="12" t="s">
+      <c r="A203" s="17"/>
+      <c r="B203" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="14"/>
-      <c r="B204" s="12" t="s">
+      <c r="A204" s="17"/>
+      <c r="B204" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="14"/>
-      <c r="B205" s="12" t="s">
+      <c r="A205" s="17"/>
+      <c r="B205" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="14"/>
-      <c r="B206" s="12" t="s">
+      <c r="A206" s="17"/>
+      <c r="B206" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="14"/>
-      <c r="B207" s="12" t="s">
+      <c r="A207" s="17"/>
+      <c r="B207" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="15"/>
-      <c r="B208" s="12" t="s">
+      <c r="A208" s="18"/>
+      <c r="B208" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="13" t="s">
+      <c r="A210" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B210" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="14"/>
-      <c r="B211" s="12" t="s">
+      <c r="A211" s="17"/>
+      <c r="B211" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="14"/>
-      <c r="B212" s="12" t="s">
+      <c r="A212" s="17"/>
+      <c r="B212" s="10" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="14"/>
-      <c r="B213" s="12" t="s">
+      <c r="A213" s="17"/>
+      <c r="B213" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="14"/>
-      <c r="B214" s="12" t="s">
+      <c r="A214" s="17"/>
+      <c r="B214" s="10" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="14"/>
-      <c r="B215" s="12" t="s">
+      <c r="A215" s="17"/>
+      <c r="B215" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="14"/>
-      <c r="B216" s="12" t="s">
+      <c r="A216" s="17"/>
+      <c r="B216" s="10" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="14"/>
-      <c r="B217" s="12" t="s">
+      <c r="A217" s="17"/>
+      <c r="B217" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="15"/>
-      <c r="B218" s="12" t="s">
+      <c r="A218" s="18"/>
+      <c r="B218" s="10" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="B220" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A157:A167"/>
+    <mergeCell ref="A136:A155"/>
+    <mergeCell ref="A119:A134"/>
+    <mergeCell ref="A106:A117"/>
+    <mergeCell ref="A93:A104"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A37"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A65:A91"/>
     <mergeCell ref="A210:A218"/>
     <mergeCell ref="A196:A208"/>
     <mergeCell ref="A187:A194"/>
     <mergeCell ref="A179:A185"/>
     <mergeCell ref="A169:A177"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A37"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="A65:A91"/>
-    <mergeCell ref="A157:A167"/>
-    <mergeCell ref="A136:A155"/>
-    <mergeCell ref="A119:A134"/>
-    <mergeCell ref="A106:A117"/>
-    <mergeCell ref="A93:A104"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" location="overview"/>

--- a/Typescript.xlsx
+++ b/Typescript.xlsx
@@ -995,13 +995,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1012,15 +1016,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1294,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1308,78 +1308,78 @@
   <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220:B220"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="11"/>
+    <col min="1" max="1" width="66.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" s="7" customFormat="1" ht="15.6">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="6" customFormat="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="6" customFormat="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="6" customFormat="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="6" customFormat="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1388,157 +1388,157 @@
       <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="6" customFormat="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="6" customFormat="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="6" customFormat="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="6" customFormat="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="6" customFormat="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="14"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="14"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="14"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="14"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="14"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="14"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="14"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="14"/>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="14"/>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="14"/>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="14"/>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14"/>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="14"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="14"/>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="14"/>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="15"/>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1546,91 +1546,91 @@
       <c r="A39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="14"/>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="14"/>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="14"/>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="14"/>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="14"/>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="14"/>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="14"/>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="14"/>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="14"/>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="14"/>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="14"/>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="14"/>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="14"/>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="14"/>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1638,55 +1638,55 @@
       <c r="A55" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="14"/>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="14"/>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="14"/>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="14"/>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="14"/>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="14"/>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="14"/>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="14"/>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1694,163 +1694,163 @@
       <c r="A65" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="14"/>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="14"/>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="14"/>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="14"/>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="14"/>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="14"/>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="14"/>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="14"/>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="14"/>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="14"/>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="14"/>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="14"/>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="14"/>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="14"/>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="14"/>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="14"/>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="14"/>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="14"/>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="14"/>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="14"/>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="14"/>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="14"/>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="14"/>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="14"/>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="14"/>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="15"/>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1858,73 +1858,73 @@
       <c r="A93" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="14"/>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="14"/>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="14"/>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="14"/>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="14"/>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="14"/>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="14"/>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="14"/>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="14"/>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="14"/>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="14"/>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1932,73 +1932,73 @@
       <c r="A106" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="14"/>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="14"/>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="14"/>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="14"/>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="14"/>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="14"/>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="14"/>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="14"/>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="14"/>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="14"/>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="14"/>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2006,599 +2006,599 @@
       <c r="A119" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="14"/>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="14"/>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="14"/>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="14"/>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="14"/>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="14"/>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="14"/>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="14"/>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="14"/>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="14"/>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="14"/>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="14"/>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="14"/>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="14"/>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="15"/>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="17"/>
-      <c r="B137" s="10" t="s">
+      <c r="A137" s="11"/>
+      <c r="B137" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="17"/>
-      <c r="B138" s="10" t="s">
+      <c r="A138" s="11"/>
+      <c r="B138" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="17"/>
-      <c r="B139" s="10" t="s">
+      <c r="A139" s="11"/>
+      <c r="B139" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="17"/>
-      <c r="B140" s="10" t="s">
+      <c r="A140" s="11"/>
+      <c r="B140" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="17"/>
-      <c r="B141" s="10" t="s">
+      <c r="A141" s="11"/>
+      <c r="B141" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="17"/>
-      <c r="B142" s="10" t="s">
+      <c r="A142" s="11"/>
+      <c r="B142" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="17"/>
-      <c r="B143" s="10" t="s">
+      <c r="A143" s="11"/>
+      <c r="B143" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="17"/>
-      <c r="B144" s="10" t="s">
+      <c r="A144" s="11"/>
+      <c r="B144" s="8" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="17"/>
-      <c r="B145" s="10" t="s">
+      <c r="A145" s="11"/>
+      <c r="B145" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="17"/>
-      <c r="B146" s="10" t="s">
+      <c r="A146" s="11"/>
+      <c r="B146" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="17"/>
-      <c r="B147" s="10" t="s">
+      <c r="A147" s="11"/>
+      <c r="B147" s="8" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="17"/>
-      <c r="B148" s="10" t="s">
+      <c r="A148" s="11"/>
+      <c r="B148" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="17"/>
-      <c r="B149" s="10" t="s">
+      <c r="A149" s="11"/>
+      <c r="B149" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="17"/>
-      <c r="B150" s="10" t="s">
+      <c r="A150" s="11"/>
+      <c r="B150" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="17"/>
-      <c r="B151" s="10" t="s">
+      <c r="A151" s="11"/>
+      <c r="B151" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="17"/>
-      <c r="B152" s="10" t="s">
+      <c r="A152" s="11"/>
+      <c r="B152" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="17"/>
-      <c r="B153" s="10" t="s">
+      <c r="A153" s="11"/>
+      <c r="B153" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="17"/>
-      <c r="B154" s="10" t="s">
+      <c r="A154" s="11"/>
+      <c r="B154" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="18"/>
-      <c r="B155" s="10" t="s">
+      <c r="A155" s="12"/>
+      <c r="B155" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="17"/>
-      <c r="B158" s="10" t="s">
+      <c r="A158" s="11"/>
+      <c r="B158" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="17"/>
-      <c r="B159" s="10" t="s">
+      <c r="A159" s="11"/>
+      <c r="B159" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="17"/>
-      <c r="B160" s="10" t="s">
+      <c r="A160" s="11"/>
+      <c r="B160" s="8" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="17"/>
-      <c r="B161" s="10" t="s">
+      <c r="A161" s="11"/>
+      <c r="B161" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="17"/>
-      <c r="B162" s="10" t="s">
+      <c r="A162" s="11"/>
+      <c r="B162" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="17"/>
-      <c r="B163" s="10" t="s">
+      <c r="A163" s="11"/>
+      <c r="B163" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="17"/>
-      <c r="B164" s="10" t="s">
+      <c r="A164" s="11"/>
+      <c r="B164" s="8" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="17"/>
-      <c r="B165" s="10" t="s">
+      <c r="A165" s="11"/>
+      <c r="B165" s="8" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="17"/>
-      <c r="B166" s="10" t="s">
+      <c r="A166" s="11"/>
+      <c r="B166" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="18"/>
-      <c r="B167" s="10" t="s">
+      <c r="A167" s="12"/>
+      <c r="B167" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="17"/>
-      <c r="B170" s="10" t="s">
+      <c r="A170" s="11"/>
+      <c r="B170" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="17"/>
-      <c r="B171" s="10" t="s">
+      <c r="A171" s="11"/>
+      <c r="B171" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="17"/>
-      <c r="B172" s="10" t="s">
+      <c r="A172" s="11"/>
+      <c r="B172" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="17"/>
-      <c r="B173" s="10" t="s">
+      <c r="A173" s="11"/>
+      <c r="B173" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="17"/>
-      <c r="B174" s="10" t="s">
+      <c r="A174" s="11"/>
+      <c r="B174" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="17"/>
-      <c r="B175" s="10" t="s">
+      <c r="A175" s="11"/>
+      <c r="B175" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="17"/>
-      <c r="B176" s="10" t="s">
+      <c r="A176" s="11"/>
+      <c r="B176" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="18"/>
-      <c r="B177" s="10" t="s">
+      <c r="A177" s="12"/>
+      <c r="B177" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="16" t="s">
+      <c r="A179" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="17"/>
-      <c r="B180" s="10" t="s">
+      <c r="A180" s="11"/>
+      <c r="B180" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="17"/>
-      <c r="B181" s="10" t="s">
+      <c r="A181" s="11"/>
+      <c r="B181" s="8" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="17"/>
-      <c r="B182" s="10" t="s">
+      <c r="A182" s="11"/>
+      <c r="B182" s="8" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="17"/>
-      <c r="B183" s="10" t="s">
+      <c r="A183" s="11"/>
+      <c r="B183" s="8" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="17"/>
-      <c r="B184" s="10" t="s">
+      <c r="A184" s="11"/>
+      <c r="B184" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="18"/>
-      <c r="B185" s="10" t="s">
+      <c r="A185" s="12"/>
+      <c r="B185" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="16" t="s">
+      <c r="A187" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="17"/>
-      <c r="B188" s="10" t="s">
+      <c r="A188" s="11"/>
+      <c r="B188" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="17"/>
-      <c r="B189" s="10" t="s">
+      <c r="A189" s="11"/>
+      <c r="B189" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="17"/>
-      <c r="B190" s="10" t="s">
+      <c r="A190" s="11"/>
+      <c r="B190" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="17"/>
-      <c r="B191" s="10" t="s">
+      <c r="A191" s="11"/>
+      <c r="B191" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="17"/>
-      <c r="B192" s="10" t="s">
+      <c r="A192" s="11"/>
+      <c r="B192" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="17"/>
-      <c r="B193" s="10" t="s">
+      <c r="A193" s="11"/>
+      <c r="B193" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="18"/>
-      <c r="B194" s="10" t="s">
+      <c r="A194" s="12"/>
+      <c r="B194" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="16" t="s">
+      <c r="A196" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="17"/>
-      <c r="B197" s="10" t="s">
+      <c r="A197" s="11"/>
+      <c r="B197" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="17"/>
-      <c r="B198" s="10" t="s">
+      <c r="A198" s="11"/>
+      <c r="B198" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="17"/>
-      <c r="B199" s="10" t="s">
+      <c r="A199" s="11"/>
+      <c r="B199" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="17"/>
-      <c r="B200" s="10" t="s">
+      <c r="A200" s="11"/>
+      <c r="B200" s="8" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="17"/>
-      <c r="B201" s="10" t="s">
+      <c r="A201" s="11"/>
+      <c r="B201" s="8" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="17"/>
-      <c r="B202" s="10" t="s">
+      <c r="A202" s="11"/>
+      <c r="B202" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="17"/>
-      <c r="B203" s="10" t="s">
+      <c r="A203" s="11"/>
+      <c r="B203" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="17"/>
-      <c r="B204" s="10" t="s">
+      <c r="A204" s="11"/>
+      <c r="B204" s="8" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="17"/>
-      <c r="B205" s="10" t="s">
+      <c r="A205" s="11"/>
+      <c r="B205" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="17"/>
-      <c r="B206" s="10" t="s">
+      <c r="A206" s="11"/>
+      <c r="B206" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="17"/>
-      <c r="B207" s="10" t="s">
+      <c r="A207" s="11"/>
+      <c r="B207" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="18"/>
-      <c r="B208" s="10" t="s">
+      <c r="A208" s="12"/>
+      <c r="B208" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="16" t="s">
+      <c r="A210" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="17"/>
-      <c r="B211" s="10" t="s">
+      <c r="A211" s="11"/>
+      <c r="B211" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="17"/>
-      <c r="B212" s="10" t="s">
+      <c r="A212" s="11"/>
+      <c r="B212" s="8" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="17"/>
-      <c r="B213" s="10" t="s">
+      <c r="A213" s="11"/>
+      <c r="B213" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="17"/>
-      <c r="B214" s="10" t="s">
+      <c r="A214" s="11"/>
+      <c r="B214" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="17"/>
-      <c r="B215" s="10" t="s">
+      <c r="A215" s="11"/>
+      <c r="B215" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="17"/>
-      <c r="B216" s="10" t="s">
+      <c r="A216" s="11"/>
+      <c r="B216" s="8" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="17"/>
-      <c r="B217" s="10" t="s">
+      <c r="A217" s="11"/>
+      <c r="B217" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="18"/>
-      <c r="B218" s="10" t="s">
+      <c r="A218" s="12"/>
+      <c r="B218" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="10" t="s">
+      <c r="A220" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B220" s="10"/>
+      <c r="B220" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A210:A218"/>
+    <mergeCell ref="A196:A208"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="A179:A185"/>
+    <mergeCell ref="A169:A177"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A37"/>
+    <mergeCell ref="A39:A53"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="A65:A91"/>
     <mergeCell ref="A157:A167"/>
     <mergeCell ref="A136:A155"/>
     <mergeCell ref="A119:A134"/>
     <mergeCell ref="A106:A117"/>
     <mergeCell ref="A93:A104"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A37"/>
-    <mergeCell ref="A39:A53"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="A65:A91"/>
-    <mergeCell ref="A210:A218"/>
-    <mergeCell ref="A196:A208"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="A179:A185"/>
-    <mergeCell ref="A169:A177"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" location="overview"/>
